--- a/biology/Zoologie/Badamia_exclamationis/Badamia_exclamationis.xlsx
+++ b/biology/Zoologie/Badamia_exclamationis/Badamia_exclamationis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Badamia exclamationis est une espèce de lépidoptères (papillons) de la famille des Hesperiidae, de la sous-famille des Coeliadinae et du genre Badamia.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Badamia exclamationis a été nommé par Johan Christian Fabricius en 1775[1].
-Nom vernaculaire
-Badamia exclamationis se nomme Brown Awl en anglais[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Badamia exclamationis a été nommé par Johan Christian Fabricius en 1775.
 </t>
         </is>
       </c>
@@ -541,14 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon qui présente la forme caractéristique des Hesperiidae, massif avec les ailes positionnées en V et au profil triangulaire. Il est de couleur marron terne avec une ornementation de quelques petites marques blanches au centre des antérieures et des postérieures incurvées formant une pointe[2]
-Chenille
-La chenille est jaune avec des marques foncées[2].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Badamia exclamationis se nomme Brown Awl en anglais.
 </t>
         </is>
       </c>
@@ -574,14 +590,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un migrateur[2]. En 1942 en Australie une très importante migration a été rapportée[3].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Ficus, des Combretum dont Combretum ovalifolium, Linociera purpurea, des Terminalia dont Terminalia belerica, Terminalia catappa, Terminalia oblongata[1],[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon qui présente la forme caractéristique des Hesperiidae, massif avec les ailes positionnées en V et au profil triangulaire. Il est de couleur marron terne avec une ornementation de quelques petites marques blanches au centre des antérieures et des postérieures incurvées formant une pointe
 </t>
         </is>
       </c>
@@ -607,16 +623,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Badamia exclamationis est présent en Asie, Inde dont aux îles Andaman, Sri Lanka, Birmanie, Chine dans le Yunnan, Japon et en Océanie, en Australie et en Nouvelle-Calédonie à Grande Terre et aux îles Loyauté[1],[2],[4].
-Biotope
-Il réside dans la forêt.
-Protection
-Pas de statut de protection particulier.
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est jaune avec des marques foncées.
 </t>
         </is>
       </c>
@@ -642,12 +660,191 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un migrateur. En 1942 en Australie une très importante migration a été rapportée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Badamia_exclamationis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Badamia_exclamationis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Ficus, des Combretum dont Combretum ovalifolium, Linociera purpurea, des Terminalia dont Terminalia belerica, Terminalia catappa, Terminalia oblongata,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Badamia_exclamationis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Badamia_exclamationis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Badamia exclamationis est présent en Asie, Inde dont aux îles Andaman, Sri Lanka, Birmanie, Chine dans le Yunnan, Japon et en Océanie, en Australie et en Nouvelle-Calédonie à Grande Terre et aux îles Loyauté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Badamia_exclamationis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Badamia_exclamationis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Badamia_exclamationis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Badamia_exclamationis</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Badamia_exclamationis</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Badamia_exclamationis</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La poste des îles Samoa a émis un timbre à son effigie en 1986[2].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poste des îles Samoa a émis un timbre à son effigie en 1986.
 </t>
         </is>
       </c>
